--- a/diary/2017-6-01(L).xlsx
+++ b/diary/2017-6-01(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>P</t>
   </si>
@@ -48,19 +48,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全家三明治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全家雞翅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雞胸肉360g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,8 +85,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 50g</t>
+      <t xml:space="preserve"> 30g</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7海鮮丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉 450g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +488,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -524,24 +520,24 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5">
-        <v>8.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C2" s="5">
-        <v>33</v>
+        <v>19.8</v>
       </c>
       <c r="D2" s="5">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>19.3</v>
@@ -558,7 +554,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>13.6</v>
@@ -570,7 +566,7 @@
         <v>6.4</v>
       </c>
       <c r="F4" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -578,30 +574,30 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>6.6</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="C5" s="1">
-        <v>25.1</v>
+        <v>10.7</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="F5" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="D6" s="1">
         <v>26.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -609,63 +605,38 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="C8" s="1">
-        <v>6.4</v>
+        <v>10.3</v>
       </c>
       <c r="D8" s="1">
-        <v>6.4</v>
+        <v>9.1</v>
       </c>
       <c r="F8" s="1">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>19.3</v>
+        <v>103.5</v>
       </c>
       <c r="C9" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>17.100000000000001</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>82.8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="F10" s="1">
         <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,23 +645,23 @@
       </c>
       <c r="B18" s="1">
         <f>SUM(B2:B17)</f>
-        <v>172.64999999999998</v>
+        <v>177.95</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
-        <v>88.600000000000009</v>
+        <v>57.100000000000009</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D17)</f>
-        <v>92.600000000000023</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(B18*4, C18*4, D18*9)</f>
-        <v>1878.4</v>
+        <v>1578.3000000000002</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F3:F17)</f>
-        <v>238</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
